--- a/data/pca/factorExposure/factorExposure_2015-08-20.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-08-20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,21 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +720,112 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>-0.01900240212783779</v>
+        <v>0.01230481483886316</v>
       </c>
       <c r="C2">
-        <v>0.03091037806959015</v>
+        <v>0.04477908015512873</v>
       </c>
       <c r="D2">
-        <v>-0.1304111499074727</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.1397012500899368</v>
+      </c>
+      <c r="E2">
+        <v>0.003524155217930575</v>
+      </c>
+      <c r="F2">
+        <v>-0.003273766412582948</v>
+      </c>
+      <c r="G2">
+        <v>0.1071643191116729</v>
+      </c>
+      <c r="H2">
+        <v>0.04479342272553532</v>
+      </c>
+      <c r="I2">
+        <v>0.0691474253292402</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>0.02489646870548861</v>
+        <v>-0.02375117794076926</v>
       </c>
       <c r="C3">
-        <v>0.04473340466129327</v>
+        <v>0.02452932030634507</v>
       </c>
       <c r="D3">
-        <v>-0.03456983209329802</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.03139098481168847</v>
+      </c>
+      <c r="E3">
+        <v>0.04335526680709484</v>
+      </c>
+      <c r="F3">
+        <v>-0.02156200922053465</v>
+      </c>
+      <c r="G3">
+        <v>0.1040160885336806</v>
+      </c>
+      <c r="H3">
+        <v>0.0296033189209728</v>
+      </c>
+      <c r="I3">
+        <v>-0.06777578729632433</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.03239577553968356</v>
+        <v>0.02175052481805929</v>
       </c>
       <c r="C4">
-        <v>0.07310734903515771</v>
+        <v>0.08999090574615438</v>
       </c>
       <c r="D4">
-        <v>-0.1416561961176081</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.1532359813324614</v>
+      </c>
+      <c r="E4">
+        <v>0.02372590277163309</v>
+      </c>
+      <c r="F4">
+        <v>-0.08055692456685494</v>
+      </c>
+      <c r="G4">
+        <v>-0.006643236036334131</v>
+      </c>
+      <c r="H4">
+        <v>0.04733450834963567</v>
+      </c>
+      <c r="I4">
+        <v>0.002001333923379945</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +836,344 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>-0.02114407867648059</v>
+        <v>0.02094327852283242</v>
       </c>
       <c r="C6">
-        <v>0.01869291187670019</v>
+        <v>0.03125775189263963</v>
       </c>
       <c r="D6">
-        <v>-0.1538088126332137</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.1348143114491314</v>
+      </c>
+      <c r="E6">
+        <v>-0.02963150488666572</v>
+      </c>
+      <c r="F6">
+        <v>-0.05897298940871398</v>
+      </c>
+      <c r="G6">
+        <v>0.05105785736256728</v>
+      </c>
+      <c r="H6">
+        <v>0.02722376225034063</v>
+      </c>
+      <c r="I6">
+        <v>-0.02017192826575587</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>-0.008824689265164434</v>
+        <v>0.0049440717668079</v>
       </c>
       <c r="C7">
-        <v>0.02827192622008891</v>
+        <v>0.03558559269636188</v>
       </c>
       <c r="D7">
-        <v>-0.1161244417925069</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.09537523275218321</v>
+      </c>
+      <c r="E7">
+        <v>-0.04014927781073873</v>
+      </c>
+      <c r="F7">
+        <v>-0.01254551949886197</v>
+      </c>
+      <c r="G7">
+        <v>0.04250750529331913</v>
+      </c>
+      <c r="H7">
+        <v>0.05694326431470441</v>
+      </c>
+      <c r="I7">
+        <v>-0.04837464303454223</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>-0.002174135807377243</v>
+        <v>-0.00522734764798197</v>
       </c>
       <c r="C8">
-        <v>0.03363356467617163</v>
+        <v>0.03906880201530633</v>
       </c>
       <c r="D8">
-        <v>-0.08273545675923369</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.08198283067742708</v>
+      </c>
+      <c r="E8">
+        <v>-0.01009430547587158</v>
+      </c>
+      <c r="F8">
+        <v>-0.05040626170378282</v>
+      </c>
+      <c r="G8">
+        <v>0.08991760053124094</v>
+      </c>
+      <c r="H8">
+        <v>-0.005314364221877721</v>
+      </c>
+      <c r="I8">
+        <v>-0.02142904799087773</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>-0.02682409060934909</v>
+        <v>0.01586558248872609</v>
       </c>
       <c r="C9">
-        <v>0.06849322474609951</v>
+        <v>0.08020241962163002</v>
       </c>
       <c r="D9">
-        <v>-0.132572205136491</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.1281077593025078</v>
+      </c>
+      <c r="E9">
+        <v>0.01227580125943536</v>
+      </c>
+      <c r="F9">
+        <v>-0.04743682707663333</v>
+      </c>
+      <c r="G9">
+        <v>-0.005424337108006535</v>
+      </c>
+      <c r="H9">
+        <v>0.05067753656815493</v>
+      </c>
+      <c r="I9">
+        <v>-0.004889169109175882</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>-0.159816689025273</v>
+        <v>0.2147621804151048</v>
       </c>
       <c r="C10">
-        <v>-0.1641107906606245</v>
+        <v>-0.122465756356696</v>
       </c>
       <c r="D10">
-        <v>-0.01711263888110404</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.01697034993241327</v>
+      </c>
+      <c r="E10">
+        <v>0.02838873917146999</v>
+      </c>
+      <c r="F10">
+        <v>-0.0485272504084452</v>
+      </c>
+      <c r="G10">
+        <v>-0.001519352250402938</v>
+      </c>
+      <c r="H10">
+        <v>-0.05796185449280124</v>
+      </c>
+      <c r="I10">
+        <v>-0.0917958888699016</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>-0.02065530937117142</v>
+        <v>0.01179483546359783</v>
       </c>
       <c r="C11">
-        <v>0.04488648616470933</v>
+        <v>0.05328618604613225</v>
       </c>
       <c r="D11">
-        <v>-0.05688468796597272</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.0505040637650983</v>
+      </c>
+      <c r="E11">
+        <v>-0.01984940446808988</v>
+      </c>
+      <c r="F11">
+        <v>0.01205882750239353</v>
+      </c>
+      <c r="G11">
+        <v>0.0115641455827388</v>
+      </c>
+      <c r="H11">
+        <v>0.04291711110231573</v>
+      </c>
+      <c r="I11">
+        <v>-0.004017463411216541</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>-0.02279184965623274</v>
+        <v>0.01292467632020579</v>
       </c>
       <c r="C12">
-        <v>0.04294433550680082</v>
+        <v>0.04994484900871272</v>
       </c>
       <c r="D12">
-        <v>-0.06767800780589081</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.05112549740068691</v>
+      </c>
+      <c r="E12">
+        <v>-0.01507732801906481</v>
+      </c>
+      <c r="F12">
+        <v>0.01471987189168506</v>
+      </c>
+      <c r="G12">
+        <v>0.007874947588031965</v>
+      </c>
+      <c r="H12">
+        <v>0.07061090873778873</v>
+      </c>
+      <c r="I12">
+        <v>-0.0129594093776875</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.00147996380517625</v>
+        <v>-0.0003155747766187649</v>
       </c>
       <c r="C13">
-        <v>0.0310153526083336</v>
+        <v>0.04311008368920587</v>
       </c>
       <c r="D13">
-        <v>-0.1565551720998853</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.1595314710048603</v>
+      </c>
+      <c r="E13">
+        <v>-0.03599320527521244</v>
+      </c>
+      <c r="F13">
+        <v>-0.04626132833939114</v>
+      </c>
+      <c r="G13">
+        <v>0.0596128098917419</v>
+      </c>
+      <c r="H13">
+        <v>0.05529849415992901</v>
+      </c>
+      <c r="I13">
+        <v>-0.06215329242402905</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>0.00444935000973042</v>
+        <v>-0.002778944449433117</v>
       </c>
       <c r="C14">
-        <v>0.02371430698250688</v>
+        <v>0.02760983318120779</v>
       </c>
       <c r="D14">
-        <v>-0.1121402469288286</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.1075238818782969</v>
+      </c>
+      <c r="E14">
+        <v>-0.0173612677823391</v>
+      </c>
+      <c r="F14">
+        <v>-0.02079939242149823</v>
+      </c>
+      <c r="G14">
+        <v>0.05926561975362606</v>
+      </c>
+      <c r="H14">
+        <v>0.1013129128425348</v>
+      </c>
+      <c r="I14">
+        <v>-0.00908833781981817</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>0.004711729105427266</v>
+        <v>-0.001328139626907354</v>
       </c>
       <c r="C15">
-        <v>0.00554727592504052</v>
+        <v>0.01628486399772117</v>
       </c>
       <c r="D15">
-        <v>-0.01628796449548901</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.04460235166857072</v>
+      </c>
+      <c r="E15">
+        <v>-0.002897555827115192</v>
+      </c>
+      <c r="F15">
+        <v>-0.00180435568582874</v>
+      </c>
+      <c r="G15">
+        <v>0.02096913553515303</v>
+      </c>
+      <c r="H15">
+        <v>0.01190019089280957</v>
+      </c>
+      <c r="I15">
+        <v>0.02294648029024675</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>-0.01934067466596832</v>
+        <v>0.01241486119580961</v>
       </c>
       <c r="C16">
-        <v>0.04187067405444105</v>
+        <v>0.0487647922387287</v>
       </c>
       <c r="D16">
-        <v>-0.06488717168476195</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.05276334918324985</v>
+      </c>
+      <c r="E16">
+        <v>-0.01917093606600839</v>
+      </c>
+      <c r="F16">
+        <v>0.006292108567985975</v>
+      </c>
+      <c r="G16">
+        <v>0.006044703926464221</v>
+      </c>
+      <c r="H16">
+        <v>0.05150657860717136</v>
+      </c>
+      <c r="I16">
+        <v>-0.008492518139834699</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1184,25 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1213,257 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>0.001627909323299869</v>
+        <v>-0.003972649653636679</v>
       </c>
       <c r="C19">
-        <v>0.02697768163593709</v>
+        <v>0.02102127314858</v>
       </c>
       <c r="D19">
-        <v>-0.150001417509901</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.1039485056297427</v>
+      </c>
+      <c r="E19">
+        <v>0.0209334396324881</v>
+      </c>
+      <c r="F19">
+        <v>-0.01074790797278371</v>
+      </c>
+      <c r="G19">
+        <v>0.03537477348238017</v>
+      </c>
+      <c r="H19">
+        <v>0.06829836070846566</v>
+      </c>
+      <c r="I19">
+        <v>-0.02947595231026401</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>-0.002396854417844193</v>
+        <v>0.002084009103770552</v>
       </c>
       <c r="C20">
-        <v>0.03273002775002677</v>
+        <v>0.03879699671277528</v>
       </c>
       <c r="D20">
-        <v>-0.09765709694808207</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.1037034933192347</v>
+      </c>
+      <c r="E20">
+        <v>0.004683096439822174</v>
+      </c>
+      <c r="F20">
+        <v>-0.0311791552048525</v>
+      </c>
+      <c r="G20">
+        <v>0.03644715794795841</v>
+      </c>
+      <c r="H20">
+        <v>0.06085376976445094</v>
+      </c>
+      <c r="I20">
+        <v>-0.02109000042235271</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>-0.000169409107071737</v>
+        <v>-0.002612345040851843</v>
       </c>
       <c r="C21">
-        <v>0.03746175758576992</v>
+        <v>0.04309285081865725</v>
       </c>
       <c r="D21">
-        <v>-0.1722820433885065</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.1507737852638126</v>
+      </c>
+      <c r="E21">
+        <v>0.01958315744139862</v>
+      </c>
+      <c r="F21">
+        <v>-0.06385962232414703</v>
+      </c>
+      <c r="G21">
+        <v>0.06537979218545803</v>
+      </c>
+      <c r="H21">
+        <v>0.1402425421978084</v>
+      </c>
+      <c r="I21">
+        <v>-0.0620028006562023</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>0.003712246354935804</v>
+        <v>-0.005547416722936212</v>
       </c>
       <c r="C22">
-        <v>0.05384710491572151</v>
+        <v>0.06527651531027102</v>
       </c>
       <c r="D22">
-        <v>-0.181776680016708</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.2320176930171571</v>
+      </c>
+      <c r="E22">
+        <v>-0.04208078902856717</v>
+      </c>
+      <c r="F22">
+        <v>-0.02638640907264363</v>
+      </c>
+      <c r="G22">
+        <v>0.1445863117317086</v>
+      </c>
+      <c r="H22">
+        <v>-0.4633349360948258</v>
+      </c>
+      <c r="I22">
+        <v>0.2610284784927724</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>0.003533241073185514</v>
+        <v>-0.005128141964530001</v>
       </c>
       <c r="C23">
-        <v>0.05425226466181884</v>
+        <v>0.06614189815517564</v>
       </c>
       <c r="D23">
-        <v>-0.1813495466475324</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.2327528635830526</v>
+      </c>
+      <c r="E23">
+        <v>-0.03924562631455697</v>
+      </c>
+      <c r="F23">
+        <v>-0.02524524399954592</v>
+      </c>
+      <c r="G23">
+        <v>0.1430388782645516</v>
+      </c>
+      <c r="H23">
+        <v>-0.4633871139021329</v>
+      </c>
+      <c r="I23">
+        <v>0.2624303703805055</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>-0.02583392406366775</v>
+        <v>0.01304115637056266</v>
       </c>
       <c r="C24">
-        <v>0.05909186198318882</v>
+        <v>0.06459720760941656</v>
       </c>
       <c r="D24">
-        <v>-0.07233030573180403</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.05673224975167268</v>
+      </c>
+      <c r="E24">
+        <v>-0.01868371016729214</v>
+      </c>
+      <c r="F24">
+        <v>0.003624501741325162</v>
+      </c>
+      <c r="G24">
+        <v>0.01732590301751006</v>
+      </c>
+      <c r="H24">
+        <v>0.07274192142283059</v>
+      </c>
+      <c r="I24">
+        <v>-0.001948557318827144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>-0.03011788333022989</v>
+        <v>0.01747072632747696</v>
       </c>
       <c r="C25">
-        <v>0.05134286840528954</v>
+        <v>0.06124757971023762</v>
       </c>
       <c r="D25">
-        <v>-0.0705275462878773</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.05854561079793236</v>
+      </c>
+      <c r="E25">
+        <v>-0.008037582250074699</v>
+      </c>
+      <c r="F25">
+        <v>0.00795243574469455</v>
+      </c>
+      <c r="G25">
+        <v>0.005787606143260026</v>
+      </c>
+      <c r="H25">
+        <v>0.04547458093339286</v>
+      </c>
+      <c r="I25">
+        <v>-0.00847533730644277</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>-0.003300341478038977</v>
+        <v>0.003958226819467844</v>
       </c>
       <c r="C26">
-        <v>0.01409691600985653</v>
+        <v>0.02168649675114574</v>
       </c>
       <c r="D26">
-        <v>-0.077053519517246</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.07302847257924555</v>
+      </c>
+      <c r="E26">
+        <v>-0.017270599514469</v>
+      </c>
+      <c r="F26">
+        <v>-0.02562035467185807</v>
+      </c>
+      <c r="G26">
+        <v>0.03090083026361393</v>
+      </c>
+      <c r="H26">
+        <v>0.06435857285744581</v>
+      </c>
+      <c r="I26">
+        <v>-0.04064883960213009</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1474,286 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>-0.2425864834181186</v>
+        <v>0.3081734858216854</v>
       </c>
       <c r="C28">
-        <v>-0.2118603869010693</v>
+        <v>-0.145426930156378</v>
       </c>
       <c r="D28">
-        <v>-0.01958210101333761</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.006777435726075368</v>
+      </c>
+      <c r="E28">
+        <v>0.04672674849829046</v>
+      </c>
+      <c r="F28">
+        <v>-0.0369900814763407</v>
+      </c>
+      <c r="G28">
+        <v>-0.02388180191611365</v>
+      </c>
+      <c r="H28">
+        <v>-0.03292249526734915</v>
+      </c>
+      <c r="I28">
+        <v>-0.06462543381328678</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.004779778879443988</v>
+        <v>-0.00281390563392188</v>
       </c>
       <c r="C29">
-        <v>0.02210220756255291</v>
+        <v>0.02733193954994859</v>
       </c>
       <c r="D29">
-        <v>-0.1039482172103716</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.1052762376147867</v>
+      </c>
+      <c r="E29">
+        <v>-0.03109299960330003</v>
+      </c>
+      <c r="F29">
+        <v>-0.0317240110243847</v>
+      </c>
+      <c r="G29">
+        <v>0.04777459723185623</v>
+      </c>
+      <c r="H29">
+        <v>0.0998218332800062</v>
+      </c>
+      <c r="I29">
+        <v>-0.02201551444219165</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>-0.01302484152645822</v>
+        <v>0.01046514573889608</v>
       </c>
       <c r="C30">
-        <v>0.06388617778045108</v>
+        <v>0.07904302746013747</v>
       </c>
       <c r="D30">
-        <v>-0.1678297115460609</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1676741664785004</v>
+      </c>
+      <c r="E30">
+        <v>-0.03273450147096848</v>
+      </c>
+      <c r="F30">
+        <v>-0.03829350428964447</v>
+      </c>
+      <c r="G30">
+        <v>0.03791975303243272</v>
+      </c>
+      <c r="H30">
+        <v>0.03623754342761554</v>
+      </c>
+      <c r="I30">
+        <v>0.04229212236646072</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>-0.0385789609020394</v>
+        <v>0.01731328519022355</v>
       </c>
       <c r="C31">
-        <v>0.08462689759289879</v>
+        <v>0.08909860438890767</v>
       </c>
       <c r="D31">
-        <v>-0.0768938513203057</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.04949810169977639</v>
+      </c>
+      <c r="E31">
+        <v>-0.004912558428870405</v>
+      </c>
+      <c r="F31">
+        <v>-0.02219185951634515</v>
+      </c>
+      <c r="G31">
+        <v>0.02831917376075153</v>
+      </c>
+      <c r="H31">
+        <v>0.03729127445035416</v>
+      </c>
+      <c r="I31">
+        <v>-0.05916246679549233</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>-0.02140347405852787</v>
+        <v>0.01677650484206874</v>
       </c>
       <c r="C32">
-        <v>0.03067940994336088</v>
+        <v>0.03685950483995346</v>
       </c>
       <c r="D32">
-        <v>-0.1136072897658708</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.1195350307913099</v>
+      </c>
+      <c r="E32">
+        <v>0.0005833018014768363</v>
+      </c>
+      <c r="F32">
+        <v>-0.04505510942608001</v>
+      </c>
+      <c r="G32">
+        <v>0.02661712205785399</v>
+      </c>
+      <c r="H32">
+        <v>0.01535638954893657</v>
+      </c>
+      <c r="I32">
+        <v>-0.06645426954398588</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>-0.0115306999157945</v>
+        <v>0.008152354596081402</v>
       </c>
       <c r="C33">
-        <v>0.0444494002612161</v>
+        <v>0.05425612172613771</v>
       </c>
       <c r="D33">
-        <v>-0.1526877392774787</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.1353354541298737</v>
+      </c>
+      <c r="E33">
+        <v>-0.009368703148683117</v>
+      </c>
+      <c r="F33">
+        <v>-0.02447062122934192</v>
+      </c>
+      <c r="G33">
+        <v>0.02822552849299698</v>
+      </c>
+      <c r="H33">
+        <v>0.05604167260527056</v>
+      </c>
+      <c r="I33">
+        <v>-0.008796212492246021</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>-0.02511926508635913</v>
+        <v>0.01194020042960888</v>
       </c>
       <c r="C34">
-        <v>0.06169124635858589</v>
+        <v>0.06455460510345537</v>
       </c>
       <c r="D34">
-        <v>-0.05461144636801948</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.03807635797539283</v>
+      </c>
+      <c r="E34">
+        <v>-0.03042530680528094</v>
+      </c>
+      <c r="F34">
+        <v>0.03493256442989272</v>
+      </c>
+      <c r="G34">
+        <v>0.0169033929216484</v>
+      </c>
+      <c r="H34">
+        <v>0.05681380359801409</v>
+      </c>
+      <c r="I34">
+        <v>-0.02040785529515597</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.0009866485421111658</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.003524543300750482</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01322990448334175</v>
+      </c>
+      <c r="E35">
+        <v>-0.001585855355673892</v>
+      </c>
+      <c r="F35">
+        <v>0.001557227628032006</v>
+      </c>
+      <c r="G35">
+        <v>0.0003566961192819152</v>
+      </c>
+      <c r="H35">
+        <v>0.006878076939183693</v>
+      </c>
+      <c r="I35">
+        <v>0.002569119749686011</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>-0.008949199626539615</v>
+        <v>0.01019997138705782</v>
       </c>
       <c r="C36">
-        <v>0.005393574615204834</v>
+        <v>0.01713518042887885</v>
       </c>
       <c r="D36">
-        <v>-0.09890690613163383</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.08826620157679109</v>
+      </c>
+      <c r="E36">
+        <v>-0.005329691670230852</v>
+      </c>
+      <c r="F36">
+        <v>-0.03175609357761489</v>
+      </c>
+      <c r="G36">
+        <v>0.01788634891274828</v>
+      </c>
+      <c r="H36">
+        <v>0.05652117581199977</v>
+      </c>
+      <c r="I36">
+        <v>-0.01696575162802355</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1764,141 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>-0.008493939350577686</v>
+        <v>0.01516399189615981</v>
       </c>
       <c r="C38">
-        <v>0.01169049865996321</v>
+        <v>0.01851478823472617</v>
       </c>
       <c r="D38">
-        <v>-0.08385867056152199</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.08358638213808896</v>
+      </c>
+      <c r="E38">
+        <v>0.01486437727088561</v>
+      </c>
+      <c r="F38">
+        <v>0.01689078673028237</v>
+      </c>
+      <c r="G38">
+        <v>0.02896803587686287</v>
+      </c>
+      <c r="H38">
+        <v>0.04269373944612938</v>
+      </c>
+      <c r="I38">
+        <v>0.003555201504680773</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>-0.02235660136262031</v>
+        <v>0.0107332280460361</v>
       </c>
       <c r="C39">
-        <v>0.05892321069164688</v>
+        <v>0.07434167926485372</v>
       </c>
       <c r="D39">
-        <v>-0.1072365337897264</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.1028298970723622</v>
+      </c>
+      <c r="E39">
+        <v>-0.04276151422997259</v>
+      </c>
+      <c r="F39">
+        <v>0.01124933636777826</v>
+      </c>
+      <c r="G39">
+        <v>0.01777945463163691</v>
+      </c>
+      <c r="H39">
+        <v>0.09241896006688421</v>
+      </c>
+      <c r="I39">
+        <v>0.03999206854278057</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>-0.008554555538548893</v>
+        <v>0.003102414767076065</v>
       </c>
       <c r="C40">
-        <v>0.04365723169727358</v>
+        <v>0.04089602652781419</v>
       </c>
       <c r="D40">
-        <v>-0.1214890867181546</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.1032689419456499</v>
+      </c>
+      <c r="E40">
+        <v>-0.01232989418935105</v>
+      </c>
+      <c r="F40">
+        <v>-0.03368777259677001</v>
+      </c>
+      <c r="G40">
+        <v>0.2443058439813326</v>
+      </c>
+      <c r="H40">
+        <v>0.03116334791526677</v>
+      </c>
+      <c r="I40">
+        <v>-0.1055029413081057</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>-0.02081622408708778</v>
+        <v>0.01917483340241692</v>
       </c>
       <c r="C41">
-        <v>0.00196237159663169</v>
+        <v>0.01217589648416488</v>
       </c>
       <c r="D41">
-        <v>-0.07767316634456989</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.05616523663279612</v>
+      </c>
+      <c r="E41">
+        <v>0.02018777450458149</v>
+      </c>
+      <c r="F41">
+        <v>-0.01621003071934814</v>
+      </c>
+      <c r="G41">
+        <v>0.02889886120866261</v>
+      </c>
+      <c r="H41">
+        <v>0.0272341832112486</v>
+      </c>
+      <c r="I41">
+        <v>-0.0456584324160759</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1909,83 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>-0.01238935799570716</v>
+        <v>0.01036863687635519</v>
       </c>
       <c r="C43">
-        <v>0.0106104270754613</v>
+        <v>0.01650202931339235</v>
       </c>
       <c r="D43">
-        <v>-0.09432676552046457</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.06936833621559275</v>
+      </c>
+      <c r="E43">
+        <v>0.005795939485260871</v>
+      </c>
+      <c r="F43">
+        <v>-0.01275198324329136</v>
+      </c>
+      <c r="G43">
+        <v>0.03465569902524228</v>
+      </c>
+      <c r="H43">
+        <v>0.05593476479057079</v>
+      </c>
+      <c r="I43">
+        <v>-0.04457975374403395</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.001432235945597165</v>
+        <v>0.00117264819769372</v>
       </c>
       <c r="C44">
-        <v>0.03989737092351042</v>
+        <v>0.04292791128858752</v>
       </c>
       <c r="D44">
-        <v>-0.09991021636679841</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.1146111498694854</v>
+      </c>
+      <c r="E44">
+        <v>-0.0003955290727894925</v>
+      </c>
+      <c r="F44">
+        <v>-0.0234348516650186</v>
+      </c>
+      <c r="G44">
+        <v>0.03301647322886008</v>
+      </c>
+      <c r="H44">
+        <v>0.04940838166829484</v>
+      </c>
+      <c r="I44">
+        <v>0.03771784839402915</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1996,112 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>-0.005510635538574267</v>
+        <v>-0.0001574948909289234</v>
       </c>
       <c r="C46">
-        <v>0.0288889546259217</v>
+        <v>0.03407298950280722</v>
       </c>
       <c r="D46">
-        <v>-0.1107975527101081</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.09569861224852275</v>
+      </c>
+      <c r="E46">
+        <v>-0.01594952055829377</v>
+      </c>
+      <c r="F46">
+        <v>-0.02525882501675425</v>
+      </c>
+      <c r="G46">
+        <v>0.04523912110325113</v>
+      </c>
+      <c r="H46">
+        <v>0.1116251871963046</v>
+      </c>
+      <c r="I46">
+        <v>-0.02743207183823857</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>-0.0772937615299556</v>
+        <v>0.04566543291274909</v>
       </c>
       <c r="C47">
-        <v>0.1048794711410967</v>
+        <v>0.117622421398639</v>
       </c>
       <c r="D47">
-        <v>-0.06054455104339208</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.03188774908357039</v>
+      </c>
+      <c r="E47">
+        <v>0.01147483438049486</v>
+      </c>
+      <c r="F47">
+        <v>0.0009261432920764204</v>
+      </c>
+      <c r="G47">
+        <v>-0.01764968617984107</v>
+      </c>
+      <c r="H47">
+        <v>0.03466476643650209</v>
+      </c>
+      <c r="I47">
+        <v>-0.1154174859597868</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>-0.003200754043779225</v>
+        <v>0.00473126939160353</v>
       </c>
       <c r="C48">
-        <v>0.01830969303919934</v>
+        <v>0.02570435323498215</v>
       </c>
       <c r="D48">
-        <v>-0.0927702590145924</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.09055829404574296</v>
+      </c>
+      <c r="E48">
+        <v>0.012379744569633</v>
+      </c>
+      <c r="F48">
+        <v>-0.03481506205464385</v>
+      </c>
+      <c r="G48">
+        <v>0.03464042581280708</v>
+      </c>
+      <c r="H48">
+        <v>0.07469348694945581</v>
+      </c>
+      <c r="I48">
+        <v>-0.0156000073337615</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +2112,83 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>-0.03633407205787646</v>
+        <v>0.01865473311056176</v>
       </c>
       <c r="C50">
-        <v>0.06659459838244756</v>
+        <v>0.0747926865631449</v>
       </c>
       <c r="D50">
-        <v>-0.08242964750351221</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.06150584094786248</v>
+      </c>
+      <c r="E50">
+        <v>-0.0001874101715207018</v>
+      </c>
+      <c r="F50">
+        <v>-0.01206592756635935</v>
+      </c>
+      <c r="G50">
+        <v>0.04165928410760157</v>
+      </c>
+      <c r="H50">
+        <v>0.01900759367785086</v>
+      </c>
+      <c r="I50">
+        <v>-0.09659074841931101</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>-1.110850023011152e-05</v>
+        <v>-0.0002175141951408945</v>
       </c>
       <c r="C51">
-        <v>0.01224884992798491</v>
+        <v>0.01816945199367188</v>
       </c>
       <c r="D51">
-        <v>-0.07129376020501106</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.07633957751960979</v>
+      </c>
+      <c r="E51">
+        <v>-0.02659135116905509</v>
+      </c>
+      <c r="F51">
+        <v>-0.03992928366608853</v>
+      </c>
+      <c r="G51">
+        <v>0.05316574847004069</v>
+      </c>
+      <c r="H51">
+        <v>0.04689706408367336</v>
+      </c>
+      <c r="I51">
+        <v>-0.01157356596822934</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2199,141 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>-0.09583468164920393</v>
+        <v>0.06468959311499331</v>
       </c>
       <c r="C53">
-        <v>0.1266710125537788</v>
+        <v>0.1493990316474027</v>
       </c>
       <c r="D53">
-        <v>-0.02443693733384959</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.01045265041050411</v>
+      </c>
+      <c r="E53">
+        <v>0.0469383324288053</v>
+      </c>
+      <c r="F53">
+        <v>-0.06880300916545774</v>
+      </c>
+      <c r="G53">
+        <v>0.0334222919380848</v>
+      </c>
+      <c r="H53">
+        <v>0.005178601240963033</v>
+      </c>
+      <c r="I53">
+        <v>-0.09092056535751565</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>-0.01066802405520765</v>
+        <v>0.007453996464347567</v>
       </c>
       <c r="C54">
-        <v>0.02314342154415798</v>
+        <v>0.03379463132057755</v>
       </c>
       <c r="D54">
-        <v>-0.1136940623848843</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.09542710864496426</v>
+      </c>
+      <c r="E54">
+        <v>-0.006940491889687169</v>
+      </c>
+      <c r="F54">
+        <v>-0.003405321442924897</v>
+      </c>
+      <c r="G54">
+        <v>0.05879365789270018</v>
+      </c>
+      <c r="H54">
+        <v>0.06703656500906185</v>
+      </c>
+      <c r="I54">
+        <v>-0.05171507009972885</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>-0.08795490201045379</v>
+        <v>0.05564562508864852</v>
       </c>
       <c r="C55">
-        <v>0.1053047089320339</v>
+        <v>0.1246087149722646</v>
       </c>
       <c r="D55">
-        <v>-0.00722846780547752</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.006093876854496623</v>
+      </c>
+      <c r="E55">
+        <v>0.008108253533549518</v>
+      </c>
+      <c r="F55">
+        <v>-0.03505976810477978</v>
+      </c>
+      <c r="G55">
+        <v>0.0451762415787299</v>
+      </c>
+      <c r="H55">
+        <v>-0.00976841842057604</v>
+      </c>
+      <c r="I55">
+        <v>-0.07228288333299608</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>-0.1213859509818144</v>
+        <v>0.07732106259079123</v>
       </c>
       <c r="C56">
-        <v>0.1383369178924057</v>
+        <v>0.1739863080622963</v>
       </c>
       <c r="D56">
-        <v>-0.002782105971348823</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.009606961282603571</v>
+      </c>
+      <c r="E56">
+        <v>0.03853650431809225</v>
+      </c>
+      <c r="F56">
+        <v>-0.03212428905155573</v>
+      </c>
+      <c r="G56">
+        <v>0.05853473059963215</v>
+      </c>
+      <c r="H56">
+        <v>-0.02576036350406297</v>
+      </c>
+      <c r="I56">
+        <v>-0.07391966416956132</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2344,141 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>0.0267804469181617</v>
+        <v>-0.01314402328324836</v>
       </c>
       <c r="C58">
-        <v>0.02836559857763828</v>
+        <v>0.04455393699363822</v>
       </c>
       <c r="D58">
-        <v>-0.2219840749051367</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.2880658992405767</v>
+      </c>
+      <c r="E58">
+        <v>0.04130056597633408</v>
+      </c>
+      <c r="F58">
+        <v>-0.09251300708959356</v>
+      </c>
+      <c r="G58">
+        <v>0.08210673875372308</v>
+      </c>
+      <c r="H58">
+        <v>-0.1432905304161547</v>
+      </c>
+      <c r="I58">
+        <v>0.05558841056548421</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>-0.1722527131876354</v>
+        <v>0.2274700898111978</v>
       </c>
       <c r="C59">
-        <v>-0.1450579965873184</v>
+        <v>-0.09461927002602759</v>
       </c>
       <c r="D59">
-        <v>-0.05573139403418696</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.06846259962843157</v>
+      </c>
+      <c r="E59">
+        <v>0.03650560071209751</v>
+      </c>
+      <c r="F59">
+        <v>-0.007196278526905205</v>
+      </c>
+      <c r="G59">
+        <v>-0.002099213296672499</v>
+      </c>
+      <c r="H59">
+        <v>-0.01603935149811671</v>
+      </c>
+      <c r="I59">
+        <v>0.002629712895089895</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>-0.2036833737046306</v>
+        <v>0.1663603400045222</v>
       </c>
       <c r="C60">
-        <v>0.1045831140925273</v>
+        <v>0.1617523788584202</v>
       </c>
       <c r="D60">
-        <v>-0.1604711292596752</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.08572717048379443</v>
+      </c>
+      <c r="E60">
+        <v>-0.271436986459536</v>
+      </c>
+      <c r="F60">
+        <v>0.1650775275675336</v>
+      </c>
+      <c r="G60">
+        <v>-0.2527726250057614</v>
+      </c>
+      <c r="H60">
+        <v>-0.1202603277506029</v>
+      </c>
+      <c r="I60">
+        <v>0.02823800781507044</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>-0.03068997276860235</v>
+        <v>0.01691217202448962</v>
       </c>
       <c r="C61">
-        <v>0.05883569491317042</v>
+        <v>0.07105229163827936</v>
       </c>
       <c r="D61">
-        <v>-0.1145244116161968</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.08965593149343763</v>
+      </c>
+      <c r="E61">
+        <v>-0.03097065942597456</v>
+      </c>
+      <c r="F61">
+        <v>0.0147800451472631</v>
+      </c>
+      <c r="G61">
+        <v>0.008436568798061544</v>
+      </c>
+      <c r="H61">
+        <v>0.09271207638521181</v>
+      </c>
+      <c r="I61">
+        <v>-0.02558457581503211</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2489,228 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>-0.007721680803728368</v>
+        <v>0.003436687074533173</v>
       </c>
       <c r="C63">
-        <v>0.02602284753526204</v>
+        <v>0.03463102375815588</v>
       </c>
       <c r="D63">
-        <v>-0.09588174134835292</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.07736580705377701</v>
+      </c>
+      <c r="E63">
+        <v>-0.01987548469004211</v>
+      </c>
+      <c r="F63">
+        <v>-0.02099276243190308</v>
+      </c>
+      <c r="G63">
+        <v>0.02986304065084083</v>
+      </c>
+      <c r="H63">
+        <v>0.05356105112892925</v>
+      </c>
+      <c r="I63">
+        <v>-0.01071697365080598</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>-0.05063289994509004</v>
+        <v>0.02608430050686187</v>
       </c>
       <c r="C64">
-        <v>0.08435904526165068</v>
+        <v>0.09651136387282569</v>
       </c>
       <c r="D64">
-        <v>-0.06320784898488323</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.051066167018264</v>
+      </c>
+      <c r="E64">
+        <v>-0.02195244771470157</v>
+      </c>
+      <c r="F64">
+        <v>-0.03350595662667363</v>
+      </c>
+      <c r="G64">
+        <v>-0.02180208663968284</v>
+      </c>
+      <c r="H64">
+        <v>0.119886499814872</v>
+      </c>
+      <c r="I64">
+        <v>-0.01320683458912916</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>-0.02171895505359267</v>
+        <v>0.01542593279105549</v>
       </c>
       <c r="C65">
-        <v>0.02022236405199498</v>
+        <v>0.0375708780342931</v>
       </c>
       <c r="D65">
-        <v>-0.1222298554746685</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.1095009156462826</v>
+      </c>
+      <c r="E65">
+        <v>-0.0365726373424594</v>
+      </c>
+      <c r="F65">
+        <v>-0.01372670811585624</v>
+      </c>
+      <c r="G65">
+        <v>0.01700887084392181</v>
+      </c>
+      <c r="H65">
+        <v>0.01324763745732383</v>
+      </c>
+      <c r="I65">
+        <v>-0.008850805739471843</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>-0.02400219347815832</v>
+        <v>0.01065617947512806</v>
       </c>
       <c r="C66">
-        <v>0.06667914479921018</v>
+        <v>0.0868042667184042</v>
       </c>
       <c r="D66">
-        <v>-0.120599215676511</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1308868737276827</v>
+      </c>
+      <c r="E66">
+        <v>-0.03541743459824091</v>
+      </c>
+      <c r="F66">
+        <v>0.02065255947040893</v>
+      </c>
+      <c r="G66">
+        <v>0.01137007569501663</v>
+      </c>
+      <c r="H66">
+        <v>0.0550024210205468</v>
+      </c>
+      <c r="I66">
+        <v>0.04771285004235803</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>-0.0300553529583187</v>
+        <v>0.02857828271547522</v>
       </c>
       <c r="C67">
-        <v>0.02284148605805574</v>
+        <v>0.03135569564554199</v>
       </c>
       <c r="D67">
-        <v>-0.037601286167402</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.03152360841197423</v>
+      </c>
+      <c r="E67">
+        <v>-0.000730707456720993</v>
+      </c>
+      <c r="F67">
+        <v>0.03408090446321675</v>
+      </c>
+      <c r="G67">
+        <v>0.02345802579511837</v>
+      </c>
+      <c r="H67">
+        <v>0.05295179423523183</v>
+      </c>
+      <c r="I67">
+        <v>0.003746145896193302</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>-0.2133777358522591</v>
+        <v>0.260409744583542</v>
       </c>
       <c r="C68">
-        <v>-0.1646147608184309</v>
+        <v>-0.09984675014368725</v>
       </c>
       <c r="D68">
-        <v>-0.03444481795617683</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.03599734006927433</v>
+      </c>
+      <c r="E68">
+        <v>0.001906706050965122</v>
+      </c>
+      <c r="F68">
+        <v>-0.02553902994309086</v>
+      </c>
+      <c r="G68">
+        <v>0.03992637147923733</v>
+      </c>
+      <c r="H68">
+        <v>-0.0459602300488131</v>
+      </c>
+      <c r="I68">
+        <v>-0.04227204122043878</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>-0.06308145223662071</v>
+        <v>0.03374712506372008</v>
       </c>
       <c r="C69">
-        <v>0.1132822853667152</v>
+        <v>0.1183990179799459</v>
       </c>
       <c r="D69">
-        <v>-0.08844473106752514</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.04659614689914461</v>
+      </c>
+      <c r="E69">
+        <v>-0.006151461332060139</v>
+      </c>
+      <c r="F69">
+        <v>0.006172908182787564</v>
+      </c>
+      <c r="G69">
+        <v>-0.007829254945689808</v>
+      </c>
+      <c r="H69">
+        <v>0.03883911633007343</v>
+      </c>
+      <c r="I69">
+        <v>-0.08041049212580738</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2721,750 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>-0.2098976218218638</v>
+        <v>0.2574472310263408</v>
       </c>
       <c r="C71">
-        <v>-0.1752040723455294</v>
+        <v>-0.1127863130200653</v>
       </c>
       <c r="D71">
-        <v>-0.04457346945235924</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.03799242051918586</v>
+      </c>
+      <c r="E71">
+        <v>0.012017851505876</v>
+      </c>
+      <c r="F71">
+        <v>-0.03360095235552448</v>
+      </c>
+      <c r="G71">
+        <v>0.0621431665670097</v>
+      </c>
+      <c r="H71">
+        <v>-0.01091058814040726</v>
+      </c>
+      <c r="I71">
+        <v>-0.1415235542973602</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>-0.101993662911653</v>
+        <v>0.0679729516375006</v>
       </c>
       <c r="C72">
-        <v>0.07851780543776943</v>
+        <v>0.116651613940463</v>
       </c>
       <c r="D72">
-        <v>-0.08981169067493323</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.07124379996980904</v>
+      </c>
+      <c r="E72">
+        <v>-0.0875862745998531</v>
+      </c>
+      <c r="F72">
+        <v>0.002621178973447271</v>
+      </c>
+      <c r="G72">
+        <v>0.0101976501908581</v>
+      </c>
+      <c r="H72">
+        <v>0.05482380938655819</v>
+      </c>
+      <c r="I72">
+        <v>0.001508413315375232</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>-0.1874279585825976</v>
+        <v>0.1495487176831302</v>
       </c>
       <c r="C73">
-        <v>0.06378435175179445</v>
+        <v>0.132106529903018</v>
       </c>
       <c r="D73">
-        <v>-0.2084907767848617</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.07289750168597899</v>
+      </c>
+      <c r="E73">
+        <v>-0.4564233726546345</v>
+      </c>
+      <c r="F73">
+        <v>0.2435443852051282</v>
+      </c>
+      <c r="G73">
+        <v>-0.3949873652134113</v>
+      </c>
+      <c r="H73">
+        <v>-0.03013392395787086</v>
+      </c>
+      <c r="I73">
+        <v>-0.01356710074521292</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>-0.09672416973983142</v>
+        <v>0.06020653772181474</v>
       </c>
       <c r="C74">
-        <v>0.1096481829879696</v>
+        <v>0.1315284561300474</v>
       </c>
       <c r="D74">
-        <v>0.01678395106484439</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.02884493336134859</v>
+      </c>
+      <c r="E74">
+        <v>0.02566311072368632</v>
+      </c>
+      <c r="F74">
+        <v>-0.06352346977986886</v>
+      </c>
+      <c r="G74">
+        <v>0.008140836305461885</v>
+      </c>
+      <c r="H74">
+        <v>-0.02256290731847187</v>
+      </c>
+      <c r="I74">
+        <v>-0.08889071176975236</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>-0.2427850408022161</v>
+        <v>0.1629550018348752</v>
       </c>
       <c r="C75">
-        <v>0.1986938369513777</v>
+        <v>0.2563674157206725</v>
       </c>
       <c r="D75">
-        <v>0.1058319428411614</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1250677191982111</v>
+      </c>
+      <c r="E75">
+        <v>0.08298411228733678</v>
+      </c>
+      <c r="F75">
+        <v>0.02617094775901983</v>
+      </c>
+      <c r="G75">
+        <v>0.05813399497118207</v>
+      </c>
+      <c r="H75">
+        <v>-0.02600883951289196</v>
+      </c>
+      <c r="I75">
+        <v>-0.07355045353322438</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>-0.1352256348640864</v>
+        <v>0.0858943435190596</v>
       </c>
       <c r="C76">
-        <v>0.1408826779260106</v>
+        <v>0.1724059165739296</v>
       </c>
       <c r="D76">
-        <v>-0.01731995727712369</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.009572537237401217</v>
+      </c>
+      <c r="E76">
+        <v>0.03743027929171006</v>
+      </c>
+      <c r="F76">
+        <v>-0.01804766735418287</v>
+      </c>
+      <c r="G76">
+        <v>0.05507630552967364</v>
+      </c>
+      <c r="H76">
+        <v>0.01171741623768765</v>
+      </c>
+      <c r="I76">
+        <v>-0.07627411072511385</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>-0.02314115440032046</v>
+        <v>0.03177502165574007</v>
       </c>
       <c r="C77">
-        <v>0.08157637286248802</v>
+        <v>0.09311362851037996</v>
       </c>
       <c r="D77">
-        <v>-0.04995560310303339</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.2375376711345629</v>
+      </c>
+      <c r="E77">
+        <v>0.686590637397281</v>
+      </c>
+      <c r="F77">
+        <v>0.4168368348385092</v>
+      </c>
+      <c r="G77">
+        <v>-0.3270121731104872</v>
+      </c>
+      <c r="H77">
+        <v>-0.2245052253400307</v>
+      </c>
+      <c r="I77">
+        <v>-0.1558143755027308</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>-0.02158301670183465</v>
+        <v>0.01760907162779952</v>
       </c>
       <c r="C78">
-        <v>0.06468237167482772</v>
+        <v>0.07698543430341899</v>
       </c>
       <c r="D78">
-        <v>-0.1478114476484992</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.1374046028949797</v>
+      </c>
+      <c r="E78">
+        <v>-0.04379206640616591</v>
+      </c>
+      <c r="F78">
+        <v>-0.03184003363473852</v>
+      </c>
+      <c r="G78">
+        <v>-0.00620368297108903</v>
+      </c>
+      <c r="H78">
+        <v>0.02009625830336248</v>
+      </c>
+      <c r="I78">
+        <v>0.06677312908781588</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>-0.06705714544332671</v>
+        <v>0.0417063210962059</v>
       </c>
       <c r="C79">
-        <v>0.1368644786332441</v>
+        <v>0.1565497904393797</v>
       </c>
       <c r="D79">
-        <v>0.07810003580219313</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.03361214508649948</v>
+      </c>
+      <c r="E79">
+        <v>0.1572847934293932</v>
+      </c>
+      <c r="F79">
+        <v>-0.7527822722533857</v>
+      </c>
+      <c r="G79">
+        <v>-0.519624656486662</v>
+      </c>
+      <c r="H79">
+        <v>-0.06556653164538026</v>
+      </c>
+      <c r="I79">
+        <v>0.1332010450310872</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>-0.009810323005968865</v>
+        <v>0.00353291685658268</v>
       </c>
       <c r="C80">
-        <v>0.05613611354562281</v>
+        <v>0.05579673098017641</v>
       </c>
       <c r="D80">
-        <v>-0.03802917327552555</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.0363308319440088</v>
+      </c>
+      <c r="E80">
+        <v>-0.01436513432427626</v>
+      </c>
+      <c r="F80">
+        <v>-0.01533242400025622</v>
+      </c>
+      <c r="G80">
+        <v>0.06940603292758658</v>
+      </c>
+      <c r="H80">
+        <v>0.006598065876801069</v>
+      </c>
+      <c r="I80">
+        <v>-0.007981805431779692</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>-0.1231106256555927</v>
+        <v>0.07239572988285564</v>
       </c>
       <c r="C81">
-        <v>0.1449033033570215</v>
+        <v>0.1683993979889826</v>
       </c>
       <c r="D81">
-        <v>0.06598573678505357</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.07520326693697459</v>
+      </c>
+      <c r="E81">
+        <v>0.07790041538884347</v>
+      </c>
+      <c r="F81">
+        <v>-0.05241136402986273</v>
+      </c>
+      <c r="G81">
+        <v>0.07513412095115905</v>
+      </c>
+      <c r="H81">
+        <v>0.04337138151823117</v>
+      </c>
+      <c r="I81">
+        <v>-0.1076025651310143</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>-0.2358762111313814</v>
+        <v>0.1344547759406013</v>
       </c>
       <c r="C82">
-        <v>0.2931076019493155</v>
+        <v>0.3131048711049978</v>
       </c>
       <c r="D82">
-        <v>0.2151939837592816</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2176333623834739</v>
+      </c>
+      <c r="E82">
+        <v>0.04632514880765944</v>
+      </c>
+      <c r="F82">
+        <v>0.08307185883710778</v>
+      </c>
+      <c r="G82">
+        <v>0.08945041431297795</v>
+      </c>
+      <c r="H82">
+        <v>0.05541507394582094</v>
+      </c>
+      <c r="I82">
+        <v>-0.0795659867116163</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>-0.006500701148308411</v>
+        <v>-0.005582646161541193</v>
       </c>
       <c r="C83">
-        <v>0.06451018675767163</v>
+        <v>0.05426407604299346</v>
       </c>
       <c r="D83">
-        <v>-0.02842147045452192</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.0447353182003685</v>
+      </c>
+      <c r="E83">
+        <v>0.09540677618695254</v>
+      </c>
+      <c r="F83">
+        <v>0.0218124926692001</v>
+      </c>
+      <c r="G83">
+        <v>0.03180701651490826</v>
+      </c>
+      <c r="H83">
+        <v>0.04648486119725675</v>
+      </c>
+      <c r="I83">
+        <v>0.09565548587291703</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>-0.001626523005145268</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.01322817193138309</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.03356875117809574</v>
+      </c>
+      <c r="E84">
+        <v>0.007978708891523367</v>
+      </c>
+      <c r="F84">
+        <v>-0.01827846886793014</v>
+      </c>
+      <c r="G84">
+        <v>0.03405006507014382</v>
+      </c>
+      <c r="H84">
+        <v>-0.007056617654935883</v>
+      </c>
+      <c r="I84">
+        <v>0.03308728926335792</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>-0.1529553764876757</v>
+        <v>0.09464120184077514</v>
       </c>
       <c r="C85">
-        <v>0.1456302779599153</v>
+        <v>0.1894694007418983</v>
       </c>
       <c r="D85">
-        <v>0.05000560431915833</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.08660317561487373</v>
+      </c>
+      <c r="E85">
+        <v>0.004329518292937391</v>
+      </c>
+      <c r="F85">
+        <v>-0.07942131623519834</v>
+      </c>
+      <c r="G85">
+        <v>0.01864248292919741</v>
+      </c>
+      <c r="H85">
+        <v>-0.01603494015779974</v>
+      </c>
+      <c r="I85">
+        <v>-0.08003328525400631</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>-0.008191481294444572</v>
+        <v>0.008265435658511898</v>
       </c>
       <c r="C86">
-        <v>0.02782831773272833</v>
+        <v>0.03027572046199655</v>
       </c>
       <c r="D86">
-        <v>-0.09240344781300189</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.1085681242874883</v>
+      </c>
+      <c r="E86">
+        <v>0.04563209284282686</v>
+      </c>
+      <c r="F86">
+        <v>0.01656955867275801</v>
+      </c>
+      <c r="G86">
+        <v>0.02057732510262483</v>
+      </c>
+      <c r="H86">
+        <v>0.01037401792002292</v>
+      </c>
+      <c r="I86">
+        <v>-0.08839495296120486</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>-0.01738357267374327</v>
+        <v>0.01820671908466405</v>
       </c>
       <c r="C87">
-        <v>0.02658081867976169</v>
+        <v>0.04475451240311392</v>
       </c>
       <c r="D87">
-        <v>-0.1261210154319438</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.1485064168220053</v>
+      </c>
+      <c r="E87">
+        <v>0.0143739784692859</v>
+      </c>
+      <c r="F87">
+        <v>-0.03440037274360199</v>
+      </c>
+      <c r="G87">
+        <v>0.05388659752523296</v>
+      </c>
+      <c r="H87">
+        <v>0.02263545422703765</v>
+      </c>
+      <c r="I87">
+        <v>0.08030281038266598</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>-0.05964703960491297</v>
+        <v>0.04022982933489425</v>
       </c>
       <c r="C88">
-        <v>0.04929601401031102</v>
+        <v>0.06749370900662362</v>
       </c>
       <c r="D88">
-        <v>-0.04664758861729107</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.01569631866711011</v>
+      </c>
+      <c r="E88">
+        <v>-0.01673254391716695</v>
+      </c>
+      <c r="F88">
+        <v>-0.0259683004199467</v>
+      </c>
+      <c r="G88">
+        <v>-0.002181606966211507</v>
+      </c>
+      <c r="H88">
+        <v>0.02021155808359007</v>
+      </c>
+      <c r="I88">
+        <v>-0.0476411697818056</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>-0.3255876338259803</v>
+        <v>0.3942655381147872</v>
       </c>
       <c r="C89">
-        <v>-0.3301237677888739</v>
+        <v>-0.2131790549086857</v>
       </c>
       <c r="D89">
-        <v>-0.02223977896855498</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.02990523953458491</v>
+      </c>
+      <c r="E89">
+        <v>0.04684779700238866</v>
+      </c>
+      <c r="F89">
+        <v>-0.04088668854271239</v>
+      </c>
+      <c r="G89">
+        <v>0.05276457293602727</v>
+      </c>
+      <c r="H89">
+        <v>0.1797436145328413</v>
+      </c>
+      <c r="I89">
+        <v>0.3805203427505357</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>-0.2588575172412946</v>
+        <v>0.3064523050844793</v>
       </c>
       <c r="C90">
-        <v>-0.2359752114016082</v>
+        <v>-0.1428486481234397</v>
       </c>
       <c r="D90">
-        <v>-0.03661147598070517</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.04200578351846053</v>
+      </c>
+      <c r="E90">
+        <v>0.00891346655634026</v>
+      </c>
+      <c r="F90">
+        <v>0.01319491867643245</v>
+      </c>
+      <c r="G90">
+        <v>0.05466464562051158</v>
+      </c>
+      <c r="H90">
+        <v>-0.03991078527957621</v>
+      </c>
+      <c r="I90">
+        <v>-0.05395037451899874</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>-0.1541048323435687</v>
+        <v>0.09414396586702195</v>
       </c>
       <c r="C91">
-        <v>0.191549770199175</v>
+        <v>0.2111757362415638</v>
       </c>
       <c r="D91">
-        <v>0.09585601971348524</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.1015026779851875</v>
+      </c>
+      <c r="E91">
+        <v>0.07988766985441395</v>
+      </c>
+      <c r="F91">
+        <v>-0.07667098819515078</v>
+      </c>
+      <c r="G91">
+        <v>0.01436753555464528</v>
+      </c>
+      <c r="H91">
+        <v>-0.007152340912542153</v>
+      </c>
+      <c r="I91">
+        <v>-0.09282142886755462</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>-0.2298179138979179</v>
+        <v>0.308405497777639</v>
       </c>
       <c r="C92">
-        <v>-0.2403271487001666</v>
+        <v>-0.173508154542369</v>
       </c>
       <c r="D92">
-        <v>0.02712122974988583</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.01069362880364742</v>
+      </c>
+      <c r="E92">
+        <v>0.09775333483951572</v>
+      </c>
+      <c r="F92">
+        <v>-0.04089061629628744</v>
+      </c>
+      <c r="G92">
+        <v>0.06962036190490142</v>
+      </c>
+      <c r="H92">
+        <v>0.005343180937269955</v>
+      </c>
+      <c r="I92">
+        <v>-0.03211902279771458</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>-0.2865868535839899</v>
+        <v>0.3286555096577591</v>
       </c>
       <c r="C93">
-        <v>-0.252958992418197</v>
+        <v>-0.1535133803816144</v>
       </c>
       <c r="D93">
-        <v>-0.02837686673733169</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.0001623125619630263</v>
+      </c>
+      <c r="E93">
+        <v>-0.03631886396271072</v>
+      </c>
+      <c r="F93">
+        <v>-0.01722672585505951</v>
+      </c>
+      <c r="G93">
+        <v>-0.02992393339903924</v>
+      </c>
+      <c r="H93">
+        <v>-0.02088163656591919</v>
+      </c>
+      <c r="I93">
+        <v>-0.1188760210173996</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>-0.3020038158956836</v>
+        <v>0.1944202571176745</v>
       </c>
       <c r="C94">
-        <v>0.2774293623772709</v>
+        <v>0.3483755556087499</v>
       </c>
       <c r="D94">
-        <v>0.3649573462507824</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.3598763208835621</v>
+      </c>
+      <c r="E94">
+        <v>0.05089176072593177</v>
+      </c>
+      <c r="F94">
+        <v>0.08846531302863166</v>
+      </c>
+      <c r="G94">
+        <v>0.2677256324694764</v>
+      </c>
+      <c r="H94">
+        <v>-0.1153308482420503</v>
+      </c>
+      <c r="I94">
+        <v>0.4073725539554808</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>-0.03519670623079822</v>
+        <v>0.03041518455999446</v>
       </c>
       <c r="C95">
-        <v>0.03894861379856519</v>
+        <v>0.06166552952542514</v>
       </c>
       <c r="D95">
-        <v>-0.06445829194559739</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.0975912822391643</v>
+      </c>
+      <c r="E95">
+        <v>0.1979401844022431</v>
+      </c>
+      <c r="F95">
+        <v>0.2002856548351871</v>
+      </c>
+      <c r="G95">
+        <v>-0.1940498114023262</v>
+      </c>
+      <c r="H95">
+        <v>0.4686014194869462</v>
+      </c>
+      <c r="I95">
+        <v>0.5093111523461632</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,38 +3475,83 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>6.418011501065512e-05</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>0.0001323253249874926</v>
       </c>
       <c r="D97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.0001972324387458073</v>
+      </c>
+      <c r="E97">
+        <v>-0.0003587536940497251</v>
+      </c>
+      <c r="F97">
+        <v>0.001340859528907054</v>
+      </c>
+      <c r="G97">
+        <v>-0.001048413334780278</v>
+      </c>
+      <c r="H97">
+        <v>0.0008870285500878613</v>
+      </c>
+      <c r="I97">
+        <v>-0.0005268472632268505</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>-0.1522682517268734</v>
+        <v>0.1264420480722826</v>
       </c>
       <c r="C98">
-        <v>0.07427609329552377</v>
+        <v>0.1254526630955614</v>
       </c>
       <c r="D98">
-        <v>-0.1251014847050476</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.05941332014221631</v>
+      </c>
+      <c r="E98">
+        <v>-0.2928914356184809</v>
+      </c>
+      <c r="F98">
+        <v>0.1465555215422852</v>
+      </c>
+      <c r="G98">
+        <v>-0.2295044739182376</v>
+      </c>
+      <c r="H98">
+        <v>-0.06986642058720398</v>
+      </c>
+      <c r="I98">
+        <v>-0.02741899728652023</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3562,25 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3591,83 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.00437871659968582</v>
+        <v>-0.002451762438382885</v>
       </c>
       <c r="C101">
-        <v>0.02167757393982125</v>
+        <v>0.02681341989036388</v>
       </c>
       <c r="D101">
-        <v>-0.1042050575194163</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.1049513202737254</v>
+      </c>
+      <c r="E101">
+        <v>-0.03027518147651284</v>
+      </c>
+      <c r="F101">
+        <v>-0.03198261006681786</v>
+      </c>
+      <c r="G101">
+        <v>0.04823865725788558</v>
+      </c>
+      <c r="H101">
+        <v>0.1011872396153529</v>
+      </c>
+      <c r="I101">
+        <v>-0.02144207964988046</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>-0.1087935040032063</v>
+        <v>0.05776750208827651</v>
       </c>
       <c r="C102">
-        <v>0.1516282622432066</v>
+        <v>0.1523176892693078</v>
       </c>
       <c r="D102">
-        <v>0.07542193757345399</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.08915455247207296</v>
+      </c>
+      <c r="E102">
+        <v>0.03228262522391132</v>
+      </c>
+      <c r="F102">
+        <v>0.05838712554889189</v>
+      </c>
+      <c r="G102">
+        <v>0.00528534430255036</v>
+      </c>
+      <c r="H102">
+        <v>0.05127222094862037</v>
+      </c>
+      <c r="I102">
+        <v>-0.03250176068509378</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3678,25 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3705,21 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
